--- a/examples/optimization/scipy/2020 Filter in region (version 1).xlsx
+++ b/examples/optimization/scipy/2020 Filter in region (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82C5EF-B9E0-4D1D-A20F-86F5F07D3D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258FF704-7B58-47B1-9A31-B4714B6404BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E4BE28C7-4D3E-41E2-AA29-DA3E1280E5CB}"/>
   </bookViews>
